--- a/DataFileSamples/Ohters/MudStone.xlsx
+++ b/DataFileSamples/Ohters/MudStone.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/GeoCode/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/GeoPyTool/DataFileSamples/Ohters/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="你的数据" sheetId="2" r:id="rId1"/>
     <sheet name="样本数据" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -713,26 +713,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z</t>
+    <t>Clay</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
+    <t>Sand</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>Silt</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1012,6 +1012,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1345,13 +1348,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="32.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="16">
       <c r="A1" s="7" t="s">
         <v>217</v>
       </c>
@@ -1385,7 +1388,7 @@
       </c>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="10">
         <v>60</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="10">
         <v>44</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="10">
         <v>62.6</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="10">
         <v>67.7</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="10">
         <v>66.599999999999994</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="11">
         <v>67.5</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="11">
         <v>59.5</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="12">
         <v>69.8</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="12">
         <v>59.8</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="12">
         <v>62.6</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="12">
         <v>61.3</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="12">
         <v>58.3</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="13">
         <v>66.7</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="13">
         <v>51.5</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="13">
         <v>74.3</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="13">
         <v>50</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="13">
         <v>54.4</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="13">
         <v>80.3</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="13">
         <v>51.3</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="13">
         <v>56.4</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="13">
         <v>58.3</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="13">
         <v>66.7</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="13">
         <v>76</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="13">
         <v>71.900000000000006</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="13">
         <v>70</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="13">
         <v>69.8</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="13">
         <v>51.8</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="13">
         <v>40.799999999999997</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30" s="13">
         <v>61</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31" s="13">
         <v>40</v>
       </c>
@@ -2476,6 +2479,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2487,7 +2491,7 @@
       <selection activeCell="G1" sqref="G1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
@@ -2500,7 +2504,7 @@
     <col min="15" max="15" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2732,7 +2736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3014,7 +3018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3202,7 +3206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -3343,7 +3347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3484,7 +3488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -3625,7 +3629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -3907,7 +3911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3954,7 +3958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -4001,7 +4005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -4048,7 +4052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -4095,7 +4099,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -4283,7 +4287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" ht="14" customHeight="1">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -4612,7 +4616,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -4706,7 +4710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -4988,7 +4992,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -5082,7 +5086,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -5223,7 +5227,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -5411,7 +5415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -5458,7 +5462,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -5505,7 +5509,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -5599,7 +5603,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -5646,7 +5650,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -5787,7 +5791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -5881,7 +5885,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -5975,7 +5979,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -6022,7 +6026,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>146</v>
       </c>
@@ -6069,7 +6073,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>150</v>
       </c>
@@ -6163,7 +6167,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -6210,7 +6214,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -6257,7 +6261,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -6351,7 +6355,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -6398,7 +6402,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -6445,7 +6449,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -6492,7 +6496,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>162</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -6586,7 +6590,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -6633,7 +6637,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>165</v>
       </c>
